--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد طه وصال ويس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Muhammed taha wesal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210100</x:t>
   </x:si>
   <x:si>
@@ -60,33 +51,6 @@
     <x:t>kareemeldin erfan abdellatif heneidy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مؤمن ايهاب مصطفى السيد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moamen Ihab Moustafa Elsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد جلال عبدالعليم ابو زينة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed galal Abdaleem abu zeina</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود عمرو محمد عدلى عبد الحليم رسلان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Amr Mohamed Adly Abdel-Halim Raslan</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220142</x:t>
   </x:si>
   <x:si>
@@ -103,24 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Mehrati Sameh Milad Bebawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يسرا حاتم محروس عبد الوهاب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUSRA HATEM MAHROUS ABDELWAHAB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2200005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف جمال حلمى عبدالله سعد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Gamal Helmy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -236,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -544,8 +490,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.860625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.330625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.220625000000002" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="37.180625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -627,7 +573,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6647177894</x:v>
+        <x:v>45906.4146853009</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -659,7 +605,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -691,7 +637,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,7 +669,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4151895486</x:v>
+        <x:v>45906.4145290509</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -741,208 +687,16 @@
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:20">
-      <x:c r="A6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3">
-        <x:v>45906.6750576389</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-      <x:c r="G6" s="2" t="s"/>
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="2" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
-      <x:c r="L6" s="2" t="s"/>
-      <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="2" t="s"/>
-      <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="2" t="s"/>
-      <x:c r="Q6" s="2" t="s"/>
-      <x:c r="R6" s="2" t="s"/>
-      <x:c r="S6" s="2" t="s"/>
-      <x:c r="T6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:20">
-      <x:c r="A7" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="3">
-        <x:v>45906.4155145833</x:v>
-      </x:c>
-      <x:c r="F7" s="2" t="s"/>
-      <x:c r="G7" s="2" t="s"/>
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
-      <x:c r="J7" s="2" t="s"/>
-      <x:c r="K7" s="2" t="s"/>
-      <x:c r="L7" s="2" t="s"/>
-      <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="2" t="s"/>
-      <x:c r="O7" s="2" t="s"/>
-      <x:c r="P7" s="2" t="s"/>
-      <x:c r="Q7" s="2" t="s"/>
-      <x:c r="R7" s="2" t="s"/>
-      <x:c r="S7" s="2" t="s"/>
-      <x:c r="T7" s="2" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:20">
-      <x:c r="A8" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="3">
-        <x:v>45906.4150845718</x:v>
-      </x:c>
-      <x:c r="F8" s="2" t="s"/>
-      <x:c r="G8" s="2" t="s"/>
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
-      <x:c r="J8" s="2" t="s"/>
-      <x:c r="K8" s="2" t="s"/>
-      <x:c r="L8" s="2" t="s"/>
-      <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="2" t="s"/>
-      <x:c r="O8" s="2" t="s"/>
-      <x:c r="P8" s="2" t="s"/>
-      <x:c r="Q8" s="2" t="s"/>
-      <x:c r="R8" s="2" t="s"/>
-      <x:c r="S8" s="2" t="s"/>
-      <x:c r="T8" s="2" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:20">
-      <x:c r="A9" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E9" s="3">
-        <x:v>45906.4145290509</x:v>
-      </x:c>
-      <x:c r="F9" s="2" t="s"/>
-      <x:c r="G9" s="2" t="s"/>
-      <x:c r="H9" s="2" t="s"/>
-      <x:c r="I9" s="2" t="s"/>
-      <x:c r="J9" s="2" t="s"/>
-      <x:c r="K9" s="2" t="s"/>
-      <x:c r="L9" s="2" t="s"/>
-      <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="2" t="s"/>
-      <x:c r="O9" s="2" t="s"/>
-      <x:c r="P9" s="2" t="s"/>
-      <x:c r="Q9" s="2" t="s"/>
-      <x:c r="R9" s="2" t="s"/>
-      <x:c r="S9" s="2" t="s"/>
-      <x:c r="T9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:20">
-      <x:c r="A10" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" s="3">
-        <x:v>45906.6679466088</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s"/>
-      <x:c r="G10" s="2" t="s"/>
-      <x:c r="H10" s="2" t="s"/>
-      <x:c r="I10" s="2" t="s"/>
-      <x:c r="J10" s="2" t="s"/>
-      <x:c r="K10" s="2" t="s"/>
-      <x:c r="L10" s="2" t="s"/>
-      <x:c r="M10" s="2" t="s"/>
-      <x:c r="N10" s="2" t="s"/>
-      <x:c r="O10" s="2" t="s"/>
-      <x:c r="P10" s="2" t="s"/>
-      <x:c r="Q10" s="2" t="s"/>
-      <x:c r="R10" s="2" t="s"/>
-      <x:c r="S10" s="2" t="s"/>
-      <x:c r="T10" s="2" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:20">
-      <x:c r="A11" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" s="3">
-        <x:v>45906.6650637384</x:v>
-      </x:c>
-      <x:c r="F11" s="2" t="s"/>
-      <x:c r="G11" s="2" t="s"/>
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
-      <x:c r="J11" s="2" t="s"/>
-      <x:c r="K11" s="2" t="s"/>
-      <x:c r="L11" s="2" t="s"/>
-      <x:c r="M11" s="2" t="s"/>
-      <x:c r="N11" s="2" t="s"/>
-      <x:c r="O11" s="2" t="s"/>
-      <x:c r="P11" s="2" t="s"/>
-      <x:c r="Q11" s="2" t="s"/>
-      <x:c r="R11" s="2" t="s"/>
-      <x:c r="S11" s="2" t="s"/>
-      <x:c r="T11" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20508]20508-70-الجيزة الرئيسي Time : Tuesday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : ----- Time : Tuesday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20508]20508-70-الجيزة الرئيسي Time : Tuesday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : ----- Time : Tuesday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20508]20508-70-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : ----- Time : Tuesday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,24 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد طه وصال ويس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Muhammed taha wesal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل أحمد حماد الشحات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bassel ahmed hammad el shahat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210100</x:t>
   </x:si>
   <x:si>
@@ -42,6 +60,42 @@
     <x:t>Zeyad Khaled Badry Jadallah</x:t>
   </x:si>
   <x:si>
+    <x:t>1210366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شهاب طارق حلمي الحضري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن هشام زكريا عبد المؤمن سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Hesham Zakaria Abdelmoomen Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر نبيل شحاتة محمد حبيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Nabil Shehata Mohamed Habib</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210279</x:t>
   </x:si>
   <x:si>
@@ -51,6 +105,42 @@
     <x:t>kareemeldin erfan abdellatif heneidy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ابراهيم محمد الحسينى مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED IBRAHIM MOHAMED ELHOSSEINI MORSI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن محمد ابراهيم الجعفراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Mohamed Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد بسطاوي احمد بسطاوى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود عمرو محمد عدلى عبد الحليم رسلان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Amr Mohamed Adly Abdel-Halim Raslan</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220142</x:t>
   </x:si>
   <x:si>
@@ -60,13 +150,58 @@
     <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهراتى سامح ميلاد بباوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mehrati Sameh Milad Bebawy</x:t>
+    <x:t>1220321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منه هشام رجب علام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menna Hesham Ragab Allam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميار ايمن عبد السلام ابراهيم خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندى عمر صالح محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nada Omar Saleh Mohammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوران محمد عبد الرحمن عبود هريدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسانين احمد على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassanein Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف وسيم مسامح محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>youssef waseem mesameh mohamed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -182,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -482,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T5"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -490,9 +625,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="27.220625000000002" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="37.180625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.860625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.190625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -573,7 +708,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45927.414371412</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -605,7 +740,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45927.4190157407</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -637,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45906.4146853009</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -669,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45927.4147809028</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -686,6 +821,486 @@
       <x:c r="R5" s="2" t="s"/>
       <x:c r="S5" s="2" t="s"/>
       <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45927.4283539352</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45927.4242024306</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45927.4148706829</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45907.4267841435</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45927.415172338</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45927.4784335301</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45927.4145408912</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45927.4526119213</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45906.4150845718</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45927.4149412847</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45927.4155648148</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45927.4244521991</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45927.4147941319</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45927.4155155093</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45927.4746874653</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
-    <x:t>1210129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باسل أحمد حماد الشحات</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bassel ahmed hammad el shahat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210100</x:t>
   </x:si>
   <x:si>
@@ -132,6 +123,15 @@
     <x:t>Mohammed bastawi ahmed bastawi Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1200434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد تامر مصطفي السيد أبو الفضل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Tamer Mostafa Alsaid Abualfadl</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210294</x:t>
   </x:si>
   <x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسرا حاتم محروس عبد الوهاب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOUSRA HATEM MAHROUS ABDELWAHAB</x:t>
   </x:si>
   <x:si>
     <x:t>2220010</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -740,7 +749,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4190157407</x:v>
+        <x:v>45906.4146853009</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -772,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45927.4147809028</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4147809028</x:v>
+        <x:v>45927.4283539352</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4283539352</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45927.4148706829</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4148706829</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45927.415172338</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.415172338</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45927.8114710301</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.8821030903</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4746874653</x:v>
+        <x:v>45927.4155155093</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.4746874653</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -42,15 +42,6 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
-    <x:t>1210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد خالد بدرى جاد الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeyad Khaled Badry Jadallah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210366</x:t>
   </x:si>
   <x:si>
@@ -130,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Tamer Mostafa Alsaid Abualfadl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جلال عبدالعليم ابو زينة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed galal Abdaleem abu zeina</x:t>
   </x:si>
   <x:si>
     <x:t>1210294</x:t>
@@ -749,7 +749,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45927.4147809028</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -781,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4147809028</x:v>
+        <x:v>45927.4283539352</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4283539352</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45927.4148706829</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4148706829</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45927.415172338</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.415172338</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45927.8114710301</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.8114710301</x:v>
+        <x:v>45928.6384126157</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -69,6 +69,15 @@
     <x:t>Omar ahmed mohamed refaat el sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1200209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عماد الدين عبد الحميد فرج جاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar emad eldin abdelhamid farag gahen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210370</x:t>
   </x:si>
   <x:si>
@@ -157,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Menna Hesham Ragab Allam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ميار ايمن عبد السلام ابراهيم خفاجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>1210163</x:t>
@@ -845,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4148706829</x:v>
+        <x:v>45929.0515190972</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45927.4148706829</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.415172338</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45927.415172338</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.8114710301</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.6384126157</x:v>
+        <x:v>45927.8114710301</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4526119213</x:v>
+        <x:v>45928.6384126157</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45927.4526119213</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4149412847</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4155648148</x:v>
+        <x:v>45927.4149412847</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -1348,11 +1348,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : ----- Time : Tuesday(15:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20322]20322-32-الجيزة الرئيسي Time : Tuesday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : ----- Time : Tuesday(15:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20322]20322-32-الجيزة الرئيسي Time : Tuesday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : ----- Time : Tuesday(15:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20322]20322-32-الجيزة الرئيسي Time : Tuesday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Muhammed taha wesal</x:t>
   </x:si>
   <x:si>
+    <x:t>1210351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد أحمد عبدالحميد ابراهيم النادى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ahmed Abdelhamid Ibrahim Elnady</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210366</x:t>
   </x:si>
   <x:si>
@@ -168,13 +177,13 @@
     <x:t>Menna Hesham Ragab Allam</x:t>
   </x:si>
   <x:si>
-    <x:t>1210163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندى عمر صالح محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nada Omar Saleh Mohammad</x:t>
+    <x:t>1210085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميار ايمن عبد السلام ابراهيم خفاجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
   </x:si>
   <x:si>
     <x:t>1210087</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -749,7 +758,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4147809028</x:v>
+        <x:v>45932.4365436343</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -781,7 +790,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4283539352</x:v>
+        <x:v>45927.4147809028</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45927.4283539352</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45929.0515190972</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4148706829</x:v>
+        <x:v>45929.0515190972</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45927.4148706829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.415172338</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45927.415172338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.8114710301</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45928.6384126157</x:v>
+        <x:v>45927.8114710301</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4526119213</x:v>
+        <x:v>45928.6384126157</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45927.4526119213</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4149412847</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4244521991</x:v>
+        <x:v>45927.4149412847</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4147941319</x:v>
+        <x:v>45932.5192177894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.8821030903</x:v>
+        <x:v>45927.4147941319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.8821030903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4746874653</x:v>
+        <x:v>45927.4155155093</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45927.4746874653</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mayar ayman Abdelsalam  Ibrahim khafagy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندى عمر صالح محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nada Omar Saleh Mohammad</x:t>
   </x:si>
   <x:si>
     <x:t>1210087</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4147941319</x:v>
+        <x:v>45932.6980106134</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.8821030903</x:v>
+        <x:v>45927.4147941319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.8821030903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4746874653</x:v>
+        <x:v>45927.4155155093</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45927.4746874653</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه طارق عمر طلبه زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210148</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -831,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4283539352</x:v>
+        <x:v>45934.8796143866</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -863,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45927.4283539352</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45929.0515190972</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4148706829</x:v>
+        <x:v>45929.0515190972</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4267841435</x:v>
+        <x:v>45927.4148706829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.415172338</x:v>
+        <x:v>45907.4267841435</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4784335301</x:v>
+        <x:v>45927.415172338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4145408912</x:v>
+        <x:v>45927.4784335301</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.8114710301</x:v>
+        <x:v>45927.4145408912</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45928.6384126157</x:v>
+        <x:v>45927.8114710301</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4526119213</x:v>
+        <x:v>45928.6384126157</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4150845718</x:v>
+        <x:v>45927.4526119213</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4149412847</x:v>
+        <x:v>45906.4150845718</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45932.5192177894</x:v>
+        <x:v>45927.4149412847</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45932.6980106134</x:v>
+        <x:v>45932.5192177894</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4147941319</x:v>
+        <x:v>45932.6980106134</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.8821030903</x:v>
+        <x:v>45927.4147941319</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.8821030903</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4746874653</x:v>
+        <x:v>45927.4155155093</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45927.4746874653</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohamed abd alfatah Alsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد محمود نصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
   </x:si>
   <x:si>
     <x:t>1220321</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4149412847</x:v>
+        <x:v>45935.4380366551</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45932.5192177894</x:v>
+        <x:v>45927.4149412847</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45932.6980106134</x:v>
+        <x:v>45932.5192177894</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4147941319</x:v>
+        <x:v>45932.6980106134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.8821030903</x:v>
+        <x:v>45927.4147941319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.8821030903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4746874653</x:v>
+        <x:v>45927.4155155093</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45927.4746874653</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES456_Tutorial-35516.xlsx
+++ b/downloaded_files/SBES456_Tutorial-35516.xlsx
@@ -1512,11 +1512,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20322]20322-32-الجيزة الرئيسي Time : Tuesday(15:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20107]20107-45-الجيزة الرئيسي Time : Tuesday(15:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20322]20322-32-الجيزة الرئيسي Time : Tuesday(15:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20107]20107-45-الجيزة الرئيسي Time : Tuesday(15:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20322]20322-32-الجيزة الرئيسي Time : Tuesday(15:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Business Process Mining and Enterprise Architecture (SBES456) Location : [20107]20107-45-الجيزة الرئيسي Time : Tuesday(15:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
